--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2367.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2367.xlsx
@@ -354,7 +354,7 @@
         <v>1.684870516730175</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.015436303578146</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2367.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2367.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8497004087008529</v>
+        <v>1.01155686378479</v>
       </c>
       <c r="B1">
-        <v>1.684870516730175</v>
+        <v>2.129428625106812</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.758969306945801</v>
       </c>
       <c r="D1">
-        <v>2.015436303578146</v>
+        <v>0.9789129495620728</v>
       </c>
       <c r="E1">
-        <v>1.211955355321721</v>
+        <v>1.060928702354431</v>
       </c>
     </row>
   </sheetData>
